--- a/20_営業/07_会計/TE030/T_TE030_CFO_007_A03_承認済仕入先請求書_データ変換_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_007_A03_承認済仕入先請求書_データ変換_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20775" windowHeight="8940" tabRatio="717"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20775" windowHeight="8940" tabRatio="717"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -26,13 +26,15 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="13" r:id="rId12"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="14" r:id="rId13"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="15" r:id="rId14"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId15"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId16"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ10)" sheetId="21" r:id="rId15"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId16"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$42</definedName>
@@ -43,9 +45,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="278">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1732,17 +1734,150 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>各テスト・シナリオは、以下のテスト・ステップで構成されます。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各テスト・ステップに沿って単体テストを実施した結果を以下に記載します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予想結果</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>10-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO007A03(承認済仕入先請求書_データ変換)</t>
+    <rPh sb="12" eb="15">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シイレサキ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>エビデンス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ10</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>XXCFO007A03から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="13" eb="17">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ10</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下ディレクトリにファイルを配置する。
+ファイル
+・ApInvoiceLinesInterface.csv
+・ApInvoicesInterface.csv
+ディレクトリ : /paasif/inbound/cb_iffile/cb/CFO007A03/03
+XXCFO007A03を実行する。OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="142" eb="144">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_007_A03_承認済仕入先請求書_データ変換_OIC統合_エビデンス(シナリオ10).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力パラメータ：
+{
+  "filePath": "/paasif/inbound/cb_iffile/cb/CFO007A03/03"
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・BUID（SALES-BU）取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・元帳ID（SALES-SOB）取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,6 +2080,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1989,7 +2139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2573,6 +2723,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2586,7 +2760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2806,9 +2980,6 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2939,6 +3110,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2983,6 +3178,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -3995,6 +4191,731 @@
         <a:xfrm>
           <a:off x="28575" y="30318075"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>11318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>99396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30514178"/>
+          <a:ext cx="6939915" cy="2602678"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>30368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>147021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33215468"/>
+          <a:ext cx="6939915" cy="2798893"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>30368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>147022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29695028"/>
+          <a:ext cx="3303270" cy="451934"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -10139,7 +11060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -10464,7 +11385,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10472,7 +11393,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10481,7 +11402,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10490,67 +11411,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="128" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="129" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="129" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="129" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -10558,11 +11479,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -10570,23 +11491,23 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
@@ -10594,25 +11515,25 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -10624,7 +11545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -10662,7 +11583,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11242,7 +12163,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11253,61 +12174,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>180</v>
       </c>
@@ -11329,7 +12250,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>153</v>
       </c>
@@ -11351,7 +12272,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="84">
+    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B13" s="67" t="s">
         <v>181</v>
       </c>
@@ -11377,7 +12298,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -11397,7 +12318,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -11417,7 +12338,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42">
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -11437,7 +12358,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5">
+    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -11457,7 +12378,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -11477,7 +12398,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -11497,7 +12418,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -11517,7 +12438,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -11537,7 +12458,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.5">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -11557,7 +12478,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -11567,7 +12488,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -11577,7 +12498,7 @@
       <c r="H24" s="47"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
@@ -11588,7 +12509,7 @@
       <c r="H25" s="47"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9" ht="14.25" thickBot="1">
+    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="71"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
@@ -11596,9 +12517,9 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
-      <c r="I26" s="119"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="118"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -11608,7 +12529,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -11618,7 +12539,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" ht="6" customHeight="1">
+    <row r="29" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -11628,7 +12549,7 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25">
+    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="32" t="s">
         <v>47</v>
       </c>
@@ -11638,7 +12559,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -11648,7 +12569,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="39"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -11658,7 +12579,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -11668,7 +12589,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -11678,7 +12599,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -11688,7 +12609,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -11706,7 +12627,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11724,7 +12645,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12304,7 +13225,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12315,61 +13236,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>133</v>
       </c>
@@ -12391,7 +13312,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>134</v>
       </c>
@@ -12413,7 +13334,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>182</v>
@@ -12440,7 +13361,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -12461,7 +13382,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -12481,7 +13402,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
@@ -12502,7 +13423,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5">
+    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -12523,7 +13444,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
@@ -12544,7 +13465,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -12564,7 +13485,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -12584,7 +13505,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -12604,7 +13525,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="42">
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -12624,7 +13545,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.5">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -12644,7 +13565,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -12664,7 +13585,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="63">
+    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -12684,7 +13605,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="67"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -12694,7 +13615,7 @@
       <c r="H26" s="47"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="67"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -12704,7 +13625,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="67"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -12714,7 +13635,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
@@ -12722,9 +13643,9 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="119"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -12732,9 +13653,9 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="109"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -12742,9 +13663,9 @@
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="109"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -12752,9 +13673,9 @@
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
-      <c r="I32" s="109"/>
-    </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+      <c r="I32" s="108"/>
+    </row>
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -12764,7 +13685,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>47</v>
       </c>
@@ -12774,7 +13695,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12784,7 +13705,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12794,7 +13715,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -12804,7 +13725,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -12814,7 +13735,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12824,7 +13745,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -12842,7 +13763,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12860,7 +13781,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13440,7 +14361,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13451,61 +14372,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>86</v>
       </c>
@@ -13527,7 +14448,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>183</v>
       </c>
@@ -13549,7 +14470,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>132</v>
@@ -13576,7 +14497,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -13597,7 +14518,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -13617,7 +14538,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
@@ -13638,7 +14559,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5">
+    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -13659,7 +14580,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -13679,7 +14600,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -13699,7 +14620,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -13719,7 +14640,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -13739,7 +14660,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="42">
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -13759,7 +14680,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.5">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -13779,7 +14700,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="84">
+    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -13799,7 +14720,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -13809,7 +14730,7 @@
       <c r="H25" s="47"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="67"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -13819,7 +14740,7 @@
       <c r="H26" s="47"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1">
+    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="71"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -13827,9 +14748,9 @@
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
-      <c r="I27" s="119"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="118"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -13837,9 +14758,9 @@
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="109"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="108"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
@@ -13847,9 +14768,9 @@
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
-      <c r="I29" s="109"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -13857,9 +14778,9 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="109"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -13869,7 +14790,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -13879,7 +14800,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -13889,7 +14810,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>47</v>
       </c>
@@ -13899,7 +14820,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13909,7 +14830,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13919,7 +14840,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13929,7 +14850,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13939,7 +14860,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13949,7 +14870,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -13967,7 +14888,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13985,7 +14906,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14565,7 +15486,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14576,61 +15497,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>185</v>
       </c>
@@ -14652,7 +15573,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>186</v>
       </c>
@@ -14674,7 +15595,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="67" t="s">
         <v>130</v>
       </c>
@@ -14696,7 +15617,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67" t="s">
         <v>187</v>
@@ -14723,7 +15644,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5">
+    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
@@ -14744,7 +15665,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -14764,7 +15685,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42">
+    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -14784,7 +15705,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -14804,7 +15725,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -14824,7 +15745,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
@@ -14845,7 +15766,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
@@ -14866,7 +15787,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
@@ -14887,7 +15808,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21">
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
@@ -14908,7 +15829,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -14928,7 +15849,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21">
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B25" s="67" t="s">
         <v>107</v>
       </c>
@@ -14950,7 +15871,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.5">
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B26" s="67" t="s">
         <v>109</v>
       </c>
@@ -14972,7 +15893,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="105">
+    <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B27" s="67" t="s">
         <v>110</v>
       </c>
@@ -14998,7 +15919,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="73.5">
+    <row r="28" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B28" s="67"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -15018,7 +15939,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="52.5">
+    <row r="29" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B29" s="67"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -15038,7 +15959,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="63">
+    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B30" s="67"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -15058,7 +15979,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="52.5">
+    <row r="31" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B31" s="67"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -15078,7 +15999,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="52.5">
+    <row r="32" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B32" s="67"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -15098,7 +16019,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="52.5">
+    <row r="33" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
       <c r="B33" s="67"/>
       <c r="C33" s="47"/>
@@ -15119,7 +16040,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="38"/>
       <c r="B34" s="67"/>
       <c r="C34" s="47"/>
@@ -15140,7 +16061,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21">
+    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A35" s="38"/>
       <c r="B35" s="67"/>
       <c r="C35" s="47"/>
@@ -15161,7 +16082,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="42">
+    <row r="36" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="38"/>
       <c r="B36" s="67"/>
       <c r="C36" s="47"/>
@@ -15182,7 +16103,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="31.5">
+    <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A37" s="38"/>
       <c r="B37" s="67"/>
       <c r="C37" s="47"/>
@@ -15203,7 +16124,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.5">
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A38" s="38"/>
       <c r="B38" s="67"/>
       <c r="C38" s="47"/>
@@ -15224,7 +16145,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="84">
+    <row r="39" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A39" s="38"/>
       <c r="B39" s="67"/>
       <c r="C39" s="47"/>
@@ -15245,7 +16166,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="71"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
@@ -15253,9 +16174,9 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="119"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="118"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
@@ -15263,9 +16184,9 @@
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
-      <c r="I41" s="109"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="108"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
@@ -15273,9 +16194,9 @@
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
-      <c r="I42" s="109"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="108"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
@@ -15283,9 +16204,9 @@
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
-      <c r="I43" s="109"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="108"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51"/>
@@ -15293,9 +16214,9 @@
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
-      <c r="I44" s="109"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="108"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
@@ -15303,9 +16224,9 @@
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
-      <c r="I45" s="109"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="108"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
@@ -15313,9 +16234,9 @@
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
-      <c r="I46" s="109"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="108"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
@@ -15323,9 +16244,9 @@
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
-      <c r="I47" s="109"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="108"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
@@ -15333,9 +16254,9 @@
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
-      <c r="I48" s="109"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="108"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -15345,7 +16266,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -15355,7 +16276,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9" ht="6" customHeight="1">
+    <row r="51" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -15365,7 +16286,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
         <v>47</v>
       </c>
@@ -15375,7 +16296,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
@@ -15385,7 +16306,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" s="39"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
@@ -15395,7 +16316,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
@@ -15405,7 +16326,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
@@ -15415,7 +16336,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -15425,7 +16346,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -15443,7 +16364,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15461,7 +16382,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16041,7 +16962,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16052,61 +16973,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>189</v>
       </c>
@@ -16128,7 +17049,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>190</v>
       </c>
@@ -16150,7 +17071,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>191</v>
@@ -16177,7 +17098,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -16198,7 +17119,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -16218,7 +17139,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
@@ -16239,7 +17160,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5">
+    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -16260,7 +17181,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
@@ -16281,7 +17202,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
@@ -16302,7 +17223,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
@@ -16323,7 +17244,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="42">
+    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
@@ -16344,7 +17265,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="42">
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
@@ -16365,7 +17286,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="84">
+    <row r="23" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
@@ -16386,7 +17307,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
@@ -16397,7 +17318,7 @@
       <c r="H24" s="47"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
@@ -16408,7 +17329,7 @@
       <c r="H25" s="47"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
       <c r="B26" s="67"/>
       <c r="C26" s="47"/>
@@ -16419,7 +17340,7 @@
       <c r="H26" s="47"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="67"/>
       <c r="C27" s="47"/>
@@ -16430,7 +17351,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="67"/>
       <c r="C28" s="47"/>
@@ -16441,17 +17362,17 @@
       <c r="H28" s="47"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="67"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="71"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
@@ -16459,9 +17380,9 @@
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
-      <c r="I30" s="119"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="118"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -16469,9 +17390,9 @@
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="109"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -16479,9 +17400,9 @@
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
-      <c r="I32" s="109"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="108"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
@@ -16489,9 +17410,9 @@
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="109"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="108"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -16501,7 +17422,7 @@
       <c r="H34" s="51"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -16511,7 +17432,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" ht="6" customHeight="1">
+    <row r="36" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -16521,7 +17442,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="51"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25">
+    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>47</v>
       </c>
@@ -16531,7 +17452,7 @@
       <c r="H37" s="51"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -16541,7 +17462,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -16551,7 +17472,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -16561,7 +17482,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -16571,7 +17492,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -16581,7 +17502,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -16599,7 +17520,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16607,12 +17528,884 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.875" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.875" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.875" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.875" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.875" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.875" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.875" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.875" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.875" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.875" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.875" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.875" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.875" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.875" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.875" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.875" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.875" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.875" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.875" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.875" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.875" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.875" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.875" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.875" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.875" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.875" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.875" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.875" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.875" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.875" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.875" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.875" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.875" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.875" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.875" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.875" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.875" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.875" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.875" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.875" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.875" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.875" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.875" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.875" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.875" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.875" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.875" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.875" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.875" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.875" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.875" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.875" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.875" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.875" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.875" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.875" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.875" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.875" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.875" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.875" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.875" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.875" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+      <c r="B11" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="I12" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="127" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="129" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="71"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="118"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -17000,7 +18793,7 @@
     <col min="16137" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17010,51 +18803,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="133" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="138" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="134"/>
-      <c r="C6" s="104" t="s">
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="141"/>
+      <c r="C6" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="132"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="143"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="139"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="65" t="s">
         <v>214</v>
       </c>
@@ -17077,7 +18870,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="67"/>
       <c r="C8" s="43"/>
       <c r="D8" s="45"/>
@@ -17086,7 +18879,7 @@
       <c r="G8" s="49"/>
       <c r="H8" s="68"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="67"/>
       <c r="C9" s="47"/>
       <c r="D9" s="43"/>
@@ -17095,7 +18888,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="68"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -17104,7 +18897,7 @@
       <c r="G10" s="49"/>
       <c r="H10" s="68"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="67"/>
       <c r="C11" s="43"/>
       <c r="D11" s="47"/>
@@ -17113,7 +18906,7 @@
       <c r="G11" s="54"/>
       <c r="H11" s="69"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="67"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -17122,7 +18915,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="69"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="67"/>
       <c r="C13" s="43"/>
       <c r="D13" s="55"/>
@@ -17131,7 +18924,7 @@
       <c r="G13" s="49"/>
       <c r="H13" s="70"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -17140,7 +18933,7 @@
       <c r="G14" s="53"/>
       <c r="H14" s="69"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="43"/>
       <c r="D15" s="55"/>
@@ -17149,7 +18942,7 @@
       <c r="G15" s="49"/>
       <c r="H15" s="70"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -17158,7 +18951,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="68"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="67"/>
       <c r="C17" s="43"/>
       <c r="D17" s="55"/>
@@ -17167,7 +18960,7 @@
       <c r="G17" s="49"/>
       <c r="H17" s="69"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
       <c r="D18" s="43"/>
@@ -17176,7 +18969,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="68"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="43"/>
       <c r="D19" s="47"/>
@@ -17185,7 +18978,7 @@
       <c r="G19" s="49"/>
       <c r="H19" s="69"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
       <c r="D20" s="43"/>
@@ -17194,7 +18987,7 @@
       <c r="G20" s="53"/>
       <c r="H20" s="68"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="43"/>
       <c r="D21" s="47"/>
@@ -17203,7 +18996,7 @@
       <c r="G21" s="49"/>
       <c r="H21" s="69"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -17212,7 +19005,7 @@
       <c r="G22" s="53"/>
       <c r="H22" s="68"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="65"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -17221,7 +19014,7 @@
       <c r="G23" s="57"/>
       <c r="H23" s="68"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -17251,14 +19044,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -17710,7 +19503,7 @@
     <col min="16136" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -17719,46 +19512,46 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="106" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
@@ -17767,7 +19560,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -17776,44 +19569,44 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="106" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="63"/>
       <c r="C15" s="40"/>
@@ -17822,7 +19615,7 @@
       <c r="F15" s="41"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="63"/>
       <c r="C16" s="40"/>
@@ -17831,7 +19624,7 @@
       <c r="F16" s="41"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="63"/>
       <c r="C17" s="40"/>
@@ -17840,7 +19633,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="64"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
@@ -17864,14 +19657,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="257" width="9" style="15"/>
@@ -18129,7 +19922,7 @@
     <col min="16133" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18140,48 +19933,48 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B7" s="97" t="s">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="89">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="88">
         <v>44915</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -18196,10 +19989,10 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="89">
+      <c r="I8" s="89"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="88">
         <v>44922</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -18214,28 +20007,28 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="122">
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="121">
         <v>44942</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="123" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="124" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="89">
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="88">
         <v>44984</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -18250,29 +20043,47 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I11" s="89"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="131">
+        <v>45561</v>
+      </c>
+      <c r="C12" s="132" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="89"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -18293,7 +20104,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -18425,7 +20236,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18440,156 +20251,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -18607,13 +20418,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="79"/>
     <col min="4" max="4" width="22.125" style="79" customWidth="1"/>
@@ -18622,7 +20434,7 @@
     <col min="7" max="16384" width="2.75" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="78"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -18630,7 +20442,7 @@
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="77" t="s">
         <v>69</v>
       </c>
@@ -18640,7 +20452,7 @@
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
       <c r="C3" s="80"/>
@@ -18648,7 +20460,7 @@
       <c r="E3" s="80"/>
       <c r="F3" s="80"/>
     </row>
-    <row r="4" spans="1:6" s="82" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -18658,7 +20470,7 @@
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -18666,157 +20478,161 @@
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" s="82" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="82" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="81"/>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="101" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" s="82" customFormat="1">
+    <row r="7" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="83" t="s">
         <v>113</v>
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" s="82" customFormat="1">
+    <row r="8" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="81"/>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="83" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" s="82" customFormat="1">
+    <row r="9" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="83" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="81"/>
     </row>
-    <row r="10" spans="1:6" s="82" customFormat="1">
+    <row r="10" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="81"/>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="83" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="81"/>
     </row>
-    <row r="11" spans="1:6" s="82" customFormat="1">
+    <row r="11" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="81"/>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="84" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="81"/>
     </row>
-    <row r="12" spans="1:6" s="82" customFormat="1">
+    <row r="12" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="81"/>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="81"/>
     </row>
-    <row r="13" spans="1:6" s="82" customFormat="1">
+    <row r="13" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="81"/>
       <c r="B13" s="81"/>
       <c r="C13" s="81"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="83" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="81"/>
     </row>
-    <row r="14" spans="1:6" s="82" customFormat="1">
+    <row r="14" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="81"/>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="83" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="81"/>
     </row>
-    <row r="15" spans="1:6" s="82" customFormat="1">
+    <row r="15" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="81"/>
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="83" t="s">
         <v>85</v>
       </c>
       <c r="F15" s="81"/>
     </row>
-    <row r="16" spans="1:6" s="82" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="81"/>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
+      <c r="D16" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="130" t="s">
+        <v>268</v>
+      </c>
       <c r="F16" s="81"/>
     </row>
-    <row r="17" spans="1:6" s="82" customFormat="1" ht="12" thickBot="1">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:6" s="82" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="85"/>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="81"/>
     </row>
-    <row r="18" spans="1:6" s="82" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="81"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-    </row>
-    <row r="19" spans="1:6" s="82" customFormat="1" ht="11.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+    </row>
+    <row r="19" spans="1:6" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -18830,9 +20646,10 @@
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
+    <hyperlink ref="D16" location="'テスト仕様_テスト結果(テスト・シナリオ10)'!A1" display="シナリオ10"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -18849,7 +20666,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -19109,7 +20926,7 @@
     <col min="16132" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -19120,307 +20937,307 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="110" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="130" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="130"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="110" t="s">
+      <c r="C8" s="137"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="110" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="110"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="110" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="109"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="110"/>
-    </row>
-    <row r="14" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="109"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="110" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="130" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="130"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="110" t="s">
+      <c r="C16" s="137"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="110" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="110"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="110" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="109"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="109" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="110"/>
-    </row>
-    <row r="22" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="109"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="110" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="130" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="130"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="110" t="s">
+      <c r="C24" s="137"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="110" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="110"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="110" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="109"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="109" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="110"/>
-    </row>
-    <row r="30" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="109"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="110" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="109" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="110"/>
-    </row>
-    <row r="34" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="109"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B35" s="110" t="s">
+    <row r="35" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="130" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="130"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="110" t="s">
+      <c r="C36" s="137"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="110"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="110" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="109"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="110"/>
-    </row>
-    <row r="41" spans="2:3" ht="13.5" customHeight="1">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="109"/>
+    </row>
+    <row r="41" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:3" s="113" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B42" s="110" t="s">
+    <row r="42" spans="2:3" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="109" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="2:3" s="114" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B43" s="130" t="s">
+    <row r="43" spans="2:3" s="113" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="130"/>
-    </row>
-    <row r="44" spans="2:3" s="113" customFormat="1">
-      <c r="B44" s="110" t="s">
+      <c r="C43" s="137"/>
+    </row>
+    <row r="44" spans="2:3" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="109" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="110"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="110" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="109"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B47" s="110"/>
-    </row>
-    <row r="48" spans="2:3" s="112" customFormat="1" ht="13.5" customHeight="1">
+    <row r="47" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="109"/>
+    </row>
+    <row r="48" spans="2:3" s="111" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="34" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="27"/>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="110" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="109" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="130" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="130"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="110" t="s">
+      <c r="C50" s="137"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="110"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="110" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="109"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B56" s="110" t="s">
+    <row r="56" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B57" s="130" t="s">
+    <row r="57" spans="2:3" s="111" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="130"/>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="110" t="s">
+      <c r="C57" s="137"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="110"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="110" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="109"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="110"/>
-    </row>
-    <row r="62" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" s="109"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B63" s="110" t="s">
+    <row r="63" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B64" s="130" t="s">
+    <row r="64" spans="2:3" s="111" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="130"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="110" t="s">
+      <c r="C64" s="137"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="109" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="110"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="110" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="109"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="110"/>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19453,10 +21270,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -20036,7 +21853,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -20047,61 +21864,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>79</v>
       </c>
@@ -20123,7 +21940,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>161</v>
       </c>
@@ -20145,7 +21962,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>162</v>
@@ -20172,7 +21989,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -20193,7 +22010,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -20213,7 +22030,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
@@ -20234,7 +22051,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -20255,7 +22072,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
@@ -20276,7 +22093,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
@@ -20297,7 +22114,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
@@ -20318,7 +22135,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -20338,7 +22155,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -20358,7 +22175,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42">
+    <row r="23" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -20378,7 +22195,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -20398,7 +22215,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -20418,7 +22235,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="124.5" customHeight="1">
+    <row r="26" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="67"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -20438,7 +22255,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="67"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -20448,7 +22265,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="67"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -20458,7 +22275,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
@@ -20466,9 +22283,9 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="119"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -20476,9 +22293,9 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="109"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -20488,7 +22305,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -20498,7 +22315,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -20508,7 +22325,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>47</v>
       </c>
@@ -20518,7 +22335,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -20528,7 +22345,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -20538,7 +22355,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -20548,7 +22365,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -20558,7 +22375,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -20568,7 +22385,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -20586,7 +22403,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20604,7 +22421,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -21184,7 +23001,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21195,61 +23012,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>138</v>
       </c>
@@ -21271,7 +23088,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>164</v>
       </c>
@@ -21293,7 +23110,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>165</v>
@@ -21320,7 +23137,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -21341,7 +23158,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -21361,7 +23178,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
@@ -21382,7 +23199,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -21403,7 +23220,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
@@ -21424,7 +23241,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
@@ -21445,7 +23262,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
@@ -21466,7 +23283,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -21486,7 +23303,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -21506,7 +23323,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42">
+    <row r="23" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -21526,7 +23343,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -21546,7 +23363,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -21566,7 +23383,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="73.5">
+    <row r="26" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B26" s="67"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -21586,7 +23403,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="67"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -21596,7 +23413,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="67"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -21606,7 +23423,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
@@ -21614,9 +23431,9 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="119"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -21624,9 +23441,9 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="109"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -21636,7 +23453,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -21646,7 +23463,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -21656,7 +23473,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>47</v>
       </c>
@@ -21666,7 +23483,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -21676,7 +23493,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -21686,7 +23503,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -21696,7 +23513,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -21706,7 +23523,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -21716,7 +23533,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -21734,7 +23551,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -21752,7 +23569,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -22332,7 +24149,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -22343,61 +24160,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>173</v>
       </c>
@@ -22419,7 +24236,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>174</v>
       </c>
@@ -22441,7 +24258,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>175</v>
@@ -22468,7 +24285,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -22489,7 +24306,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -22509,7 +24326,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
@@ -22530,7 +24347,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -22551,7 +24368,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
@@ -22572,7 +24389,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
@@ -22593,7 +24410,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
@@ -22614,7 +24431,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -22634,7 +24451,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -22654,7 +24471,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42">
+    <row r="23" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B23" s="67"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -22674,7 +24491,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B24" s="67"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -22694,7 +24511,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B25" s="67"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -22714,7 +24531,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="84">
+    <row r="26" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B26" s="67"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -22734,7 +24551,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="67"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -22744,7 +24561,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="67"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -22754,7 +24571,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
@@ -22762,9 +24579,9 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="119"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -22772,9 +24589,9 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="109"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -22784,7 +24601,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -22794,7 +24611,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -22804,7 +24621,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>47</v>
       </c>
@@ -22814,7 +24631,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -22824,7 +24641,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -22834,7 +24651,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -22844,7 +24661,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -22854,7 +24671,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -22864,7 +24681,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -22882,7 +24699,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -22900,7 +24717,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -23480,7 +25297,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -23491,61 +25308,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="116" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>177</v>
       </c>
@@ -23567,7 +25384,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>178</v>
       </c>
@@ -23589,7 +25406,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="67" t="s">
         <v>179</v>
@@ -23616,7 +25433,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5">
+    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="67"/>
       <c r="C14" s="47"/>
@@ -23637,7 +25454,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -23657,7 +25474,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -23677,7 +25494,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5">
+    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="67"/>
       <c r="C17" s="47"/>
@@ -23698,7 +25515,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="67"/>
       <c r="C18" s="47"/>
@@ -23719,7 +25536,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="67"/>
       <c r="C19" s="47"/>
@@ -23740,7 +25557,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42">
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -23760,7 +25577,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.5">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -23780,8 +25597,8 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="84">
-      <c r="B22" s="120"/>
+    <row r="22" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+      <c r="B22" s="119"/>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
       <c r="E22" s="47" t="s">
@@ -23800,57 +25617,57 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="120"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="119"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="47"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="121"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="120"/>
+      <c r="I23" s="120"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="119"/>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
       <c r="E24" s="47"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="121"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="120"/>
+      <c r="I24" s="120"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="119"/>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
       <c r="E25" s="47"/>
       <c r="F25" s="56"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="121"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="120"/>
+      <c r="I25" s="120"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="119"/>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="47"/>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="121"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="120"/>
+      <c r="I26" s="120"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="119"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
       <c r="E27" s="47"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="121"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" thickBot="1">
+      <c r="I27" s="120"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="71"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -23858,9 +25675,9 @@
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
-      <c r="I28" s="119"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="118"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
@@ -23868,9 +25685,9 @@
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
-      <c r="I29" s="109"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -23878,9 +25695,9 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="109"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -23888,9 +25705,9 @@
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="109"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -23900,7 +25717,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -23910,7 +25727,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="6" customHeight="1">
+    <row r="34" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -23920,7 +25737,7 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25">
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
         <v>47</v>
       </c>
@@ -23930,7 +25747,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -23940,7 +25757,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="39"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -23950,7 +25767,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -23960,7 +25777,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -23970,7 +25787,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -23980,7 +25797,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -23998,7 +25815,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
